--- a/data/expt_2/raw_transcripts/game34.xlsx
+++ b/data/expt_2/raw_transcripts/game34.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="M2U00004.MPG.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="M2U00004.MPG.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A91">
+    <comment ref="A91" authorId="0">
       <text>
-        <t xml:space="preserve">game restarted here
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">game restarted here
 	-Rebecca Jacqueline Pizzitola</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -27,36 +43,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="243">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="243">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're on camera.</t>
   </si>
   <si>
-    <t>R</t>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve"> So, in this game, we are going to play a matching game to help my friend Smurphy.</t>
@@ -65,13 +81,13 @@
     <t xml:space="preserve"> But before we do that, we're going to practice touching the iPads by popping some bubbles, okay?</t>
   </si>
   <si>
-    <t>So you can press the blue button on your screen.</t>
-  </si>
-  <si>
-    <t>Did I touch mine?</t>
-  </si>
-  <si>
-    <t>id85</t>
+    <t xml:space="preserve">So you can press the blue button on your screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did I touch mine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id85</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, you can touch yours too.</t>
@@ -80,58 +96,58 @@
     <t xml:space="preserve"> Good job, and now you're going to touch all of the bubbles to pop them.</t>
   </si>
   <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>id84</t>
-  </si>
-  <si>
-    <t>There you go. Keep going.</t>
-  </si>
-  <si>
-    <t>These?</t>
-  </si>
-  <si>
-    <t>Yes.</t>
-  </si>
-  <si>
-    <t>Bless you, [id84]</t>
+    <t xml:space="preserve">Okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There you go. Keep going.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bless you, [id84]</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, see you guys.</t>
   </si>
   <si>
-    <t>Awesome.</t>
-  </si>
-  <si>
-    <t>Good job.</t>
-  </si>
-  <si>
-    <t>So now you guys know how to touch the bubbles.</t>
-  </si>
-  <si>
-    <t>So you see my friend Smurphy?</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>So I'm going to take the iPads and face them this way super quick and just so I can explain the game.</t>
-  </si>
-  <si>
-    <t>So in this game you're going to help my friend Smurphy.</t>
-  </si>
-  <si>
-    <t>Do you want to say hi?</t>
-  </si>
-  <si>
-    <t>Hi.</t>
+    <t xml:space="preserve">Awesome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So now you guys know how to touch the bubbles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you see my friend Smurphy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I'm going to take the iPads and face them this way super quick and just so I can explain the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So in this game you're going to help my friend Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to say hi?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi.</t>
   </si>
   <si>
     <t xml:space="preserve"> Hi, [id84].</t>
   </si>
   <si>
-    <t>Hi, [id85].</t>
+    <t xml:space="preserve">Hi, [id85].</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so on your screens you're going to see two pictures.</t>
@@ -140,16 +156,16 @@
     <t xml:space="preserve"> Okay, one of you guys is going to have a black box around the picture.</t>
   </si>
   <si>
-    <t>Do you see the black box?</t>
-  </si>
-  <si>
-    <t>So Smurphy's job in this game is to guess what's in the black box.</t>
+    <t xml:space="preserve">Do you see the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So Smurphy's job in this game is to guess what's in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> So one of you guys will have the black box and if you do, you're going to be the teller</t>
   </si>
   <si>
-    <t>and you're going to tell Smurphy what you see in the black box.</t>
+    <t xml:space="preserve">and you're going to tell Smurphy what you see in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> If you don't have the black box, just like this, you're going to be holding Smurphy and you're going to be the guesser.</t>
@@ -167,130 +183,130 @@
     <t xml:space="preserve"> And if you don't, you'll see a frowny face, but that's okay because we're going to have many chances to help Smurphy guess.</t>
   </si>
   <si>
-    <t>Okay?</t>
+    <t xml:space="preserve">Okay?</t>
   </si>
   <si>
     <t xml:space="preserve"> So, if you have a black box, what do you do?</t>
   </si>
   <si>
-    <t>Tell.</t>
-  </si>
-  <si>
-    <t>You're going to tell.</t>
-  </si>
-  <si>
-    <t>You're going to tell Smurphy what's in the black box.</t>
+    <t xml:space="preserve">Tell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're going to tell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're going to tell Smurphy what's in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> And if you don't have a black box, just like this, what are you going to do?</t>
   </si>
   <si>
-    <t>Guess.</t>
-  </si>
-  <si>
-    <t>You're going to guess.</t>
-  </si>
-  <si>
-    <t>Hold Smurphy and guess.</t>
-  </si>
-  <si>
-    <t>Are you guys ready to play?</t>
-  </si>
-  <si>
-    <t>So we can start by pressing on your...</t>
-  </si>
-  <si>
-    <t>Blue button?</t>
-  </si>
-  <si>
-    <t>Press on your blue button.</t>
-  </si>
-  <si>
-    <t>Yay.</t>
-  </si>
-  <si>
-    <t>Who has a black box?</t>
+    <t xml:space="preserve">Guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're going to guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold Smurphy and guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you guys ready to play?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So we can start by pressing on your...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue button?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press on your blue button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who has a black box?</t>
   </si>
   <si>
     <t xml:space="preserve"> Uh, me.</t>
   </si>
   <si>
-    <t>Now [id85]'s going to tell us first what she sees in the black box.</t>
-  </si>
-  <si>
-    <t>A apple.</t>
-  </si>
-  <si>
-    <t>And then [id84]'s going to guess by touching on it.</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Good job! There you go!</t>
-  </si>
-  <si>
-    <t>And now we're going to switch back and forth.</t>
-  </si>
-  <si>
-    <t>So now [id84]'s going to tell us what's in the black box.</t>
-  </si>
-  <si>
-    <t>Now you're going to tap on which one you think it is.</t>
-  </si>
-  <si>
-    <t>Um...</t>
-  </si>
-  <si>
-    <t>One?</t>
-  </si>
-  <si>
-    <t>Touch on the one that you think it is.</t>
+    <t xml:space="preserve">Now [id85]'s going to tell us first what she sees in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A apple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then [id84]'s going to guess by touching on it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job! There you go!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And now we're going to switch back and forth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So now [id84]'s going to tell us what's in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you're going to tap on which one you think it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch on the one that you think it is.</t>
   </si>
   <si>
     <t xml:space="preserve"> I'm not sure why you also have a black box, but just tap on one of them?</t>
   </si>
   <si>
-    <t>Hmm.</t>
-  </si>
-  <si>
-    <t>Oh no.</t>
-  </si>
-  <si>
-    <t>I think my game is a little bit slow right now.</t>
-  </si>
-  <si>
-    <t>Oh my goodness.</t>
-  </si>
-  <si>
-    <t>Why is there not measuring things?</t>
-  </si>
-  <si>
-    <t>That is a good question. I'm sure they're doing something to the room.</t>
-  </si>
-  <si>
-    <t>Huh.</t>
-  </si>
-  <si>
-    <t>Let's see if I can fix this so you guys can play my game.</t>
-  </si>
-  <si>
-    <t>What is that?</t>
+    <t xml:space="preserve">Hmm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think my game is a little bit slow right now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh my goodness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is there not measuring things?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That is a good question. I'm sure they're doing something to the room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's see if I can fix this so you guys can play my game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is that?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, there you go.</t>
   </si>
   <si>
-    <t>And let's do this.</t>
-  </si>
-  <si>
-    <t>I like Smurphy.</t>
-  </si>
-  <si>
-    <t>You like Smurphy?</t>
+    <t xml:space="preserve">And let's do this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I like Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You like Smurphy?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, we're gonna start the game over since you guys only did one.</t>
@@ -299,37 +315,37 @@
     <t xml:space="preserve"> Oh, there you go.</t>
   </si>
   <si>
-    <t>I have the happy face on.</t>
-  </si>
-  <si>
-    <t>Do you?</t>
+    <t xml:space="preserve">I have the happy face on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you?</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so we're going to redo it.</t>
   </si>
   <si>
-    <t>And are the sprinkles.</t>
-  </si>
-  <si>
-    <t>Great!</t>
+    <t xml:space="preserve">And are the sprinkles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay. Awesome. And let me start this one for you. Okay. So you guys are going to tap on the bubbles one more time, super quick. There you go. There you. Yes. And then we're going to restart.</t>
   </si>
   <si>
-    <t>There you go.</t>
-  </si>
-  <si>
-    <t>You'll have to touch it with your hand finger.</t>
-  </si>
-  <si>
-    <t>I did it.</t>
-  </si>
-  <si>
-    <t>There we go.</t>
-  </si>
-  <si>
-    <t>I got some more fingers.</t>
+    <t xml:space="preserve">There you go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You'll have to touch it with your hand finger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I did it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There we go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got some more fingers.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, [id85] is almost done.</t>
@@ -350,16 +366,16 @@
     <t xml:space="preserve"> And if you don't, then you're going to guess.</t>
   </si>
   <si>
-    <t>Sound good?</t>
+    <t xml:space="preserve">Sound good?</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, you can press the blue button.</t>
   </si>
   <si>
-    <t>Let's wait until your blue button pops up and then we can go.</t>
-  </si>
-  <si>
-    <t>It should pop up pretty soon.</t>
+    <t xml:space="preserve">Let's wait until your blue button pops up and then we can go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should pop up pretty soon.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now who has a black box?</t>
@@ -368,22 +384,22 @@
     <t xml:space="preserve"> Okay, so [id85]'s going to hold Smurphy and [id84] tell us what's in the black box.</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>a apple</t>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a apple</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, and [id85]'s going to touch the one that she thinks it is.</t>
   </si>
   <si>
-    <t>Good job!</t>
-  </si>
-  <si>
-    <t>And now you guys are going to switch.</t>
-  </si>
-  <si>
-    <t>Now you have a smiley face.</t>
+    <t xml:space="preserve">Good job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And now you guys are going to switch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you have a smiley face.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, it's a different, it's a hebble.</t>
@@ -392,43 +408,43 @@
     <t xml:space="preserve"> So [id85], tell us what's in your black box.</t>
   </si>
   <si>
-    <t>A bird.</t>
-  </si>
-  <si>
-    <t>a bird</t>
+    <t xml:space="preserve">A bird.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a bird</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you guys are going to switch.</t>
   </si>
   <si>
-    <t>Keep going.</t>
-  </si>
-  <si>
-    <t>I see a house.</t>
-  </si>
-  <si>
-    <t>a house</t>
-  </si>
-  <si>
-    <t>So touch the one you think it is.</t>
+    <t xml:space="preserve">Keep going.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a house.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So touch the one you think it is.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, [id84], that's your turn now.</t>
   </si>
   <si>
-    <t>There's a splinter here.</t>
+    <t xml:space="preserve">There's a splinter here.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, I'm sorry.</t>
   </si>
   <si>
-    <t>We can take care of that after.</t>
+    <t xml:space="preserve">We can take care of that after.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, good job.</t>
   </si>
   <si>
-    <t>Look.</t>
+    <t xml:space="preserve">Look.</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, awesome.</t>
@@ -437,40 +453,40 @@
     <t xml:space="preserve"> Okay, now [id85]'s going to tell us what's in the black box and you're going to guess.</t>
   </si>
   <si>
-    <t>A goose.</t>
-  </si>
-  <si>
-    <t>a goose</t>
+    <t xml:space="preserve">A goose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a goose</t>
   </si>
   <si>
     <t xml:space="preserve"> Wow, great job, guys.</t>
   </si>
   <si>
-    <t>I said a goose.</t>
-  </si>
-  <si>
-    <t>What is this called?</t>
-  </si>
-  <si>
-    <t>Tell us what you think it is.</t>
-  </si>
-  <si>
-    <t>A person.</t>
-  </si>
-  <si>
-    <t>a person</t>
-  </si>
-  <si>
-    <t>Can you tell us a little bit more?</t>
-  </si>
-  <si>
-    <t>A person holding.</t>
-  </si>
-  <si>
-    <t>a person holding a flute</t>
-  </si>
-  <si>
-    <t>Holding a flute.</t>
+    <t xml:space="preserve">I said a goose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is this called?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell us what you think it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you tell us a little bit more?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person holding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person holding a flute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holding a flute.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now, [id85]'s going to guess which one she thinks it is.</t>
@@ -485,109 +501,109 @@
     <t xml:space="preserve"> Now, [id85]'s going to tell us what she sees in the black box.</t>
   </si>
   <si>
-    <t>Somebody falling down.</t>
-  </si>
-  <si>
-    <t>somebody falling down</t>
-  </si>
-  <si>
-    <t>Great job!</t>
-  </si>
-  <si>
-    <t>I see a person walking.</t>
-  </si>
-  <si>
-    <t>a person walking</t>
-  </si>
-  <si>
-    <t>Perfect!</t>
+    <t xml:space="preserve">Somebody falling down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody falling down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person walking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now [id85], you're going to tell us what's in your black box and [id84]'s going to guess.</t>
   </si>
   <si>
-    <t>Someone in the boat.</t>
-  </si>
-  <si>
-    <t>someone in the boat</t>
-  </si>
-  <si>
-    <t>Ooh!</t>
-  </si>
-  <si>
-    <t>Keep switching. You guys are doing great.</t>
+    <t xml:space="preserve">Someone in the boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone in the boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ooh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep switching. You guys are doing great.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, [id84].</t>
   </si>
   <si>
-    <t>I see a person flying.</t>
-  </si>
-  <si>
-    <t>a person flying</t>
+    <t xml:space="preserve">I see a person flying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person flying</t>
   </si>
   <si>
     <t xml:space="preserve"> I see a person, but I see this one.</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Good job! Great guess.</t>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job! Great guess.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now [id85]'s going to tell us. What's in your black box, [id85]?</t>
   </si>
   <si>
-    <t>Somebody walking.</t>
-  </si>
-  <si>
-    <t>somebody walking</t>
-  </si>
-  <si>
-    <t>Yay! You guys are both going to help Murphy by telling and guessing.</t>
-  </si>
-  <si>
-    <t>So you guys switch off. So now [id84]'s going to tell us.</t>
-  </si>
-  <si>
-    <t>I see a person holding a flute.</t>
-  </si>
-  <si>
-    <t>I see someone holding...</t>
-  </si>
-  <si>
-    <t>So [id84]'s telling us that you tell us that you do.</t>
-  </si>
-  <si>
-    <t>telling us that you tell us which one is good good job awesome</t>
-  </si>
-  <si>
-    <t>how about different animals</t>
-  </si>
-  <si>
-    <t>you're gonna be the guesser now [id85]'s gonna tell us.</t>
-  </si>
-  <si>
-    <t>I see someone in a boat</t>
-  </si>
-  <si>
-    <t>someone in a boat</t>
-  </si>
-  <si>
-    <t>yay good job</t>
-  </si>
-  <si>
-    <t>well I see somebody holding a trumpet well why do these are these all these things</t>
-  </si>
-  <si>
-    <t>somebody holding a trumpey</t>
-  </si>
-  <si>
-    <t>they're just two different pictures and then you guys just two different pictures and then you guys</t>
-  </si>
-  <si>
-    <t>I said it so fast.</t>
+    <t xml:space="preserve">Somebody walking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay! You guys are both going to help Murphy by telling and guessing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you guys switch off. So now [id84]'s going to tell us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person holding a flute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see someone holding...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So [id84]'s telling us that you tell us that you do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telling us that you tell us which one is good good job awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how about different animals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you're gonna be the guesser now [id85]'s gonna tell us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see someone in a boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone in a boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yay good job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">well I see somebody holding a trumpet well why do these are these all these things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody holding a trumpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they're just two different pictures and then you guys just two different pictures and then you guys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I said it so fast.</t>
   </si>
   <si>
     <t xml:space="preserve"> Good job, you did!</t>
@@ -596,79 +612,79 @@
     <t xml:space="preserve"> Okay, keep switching off.</t>
   </si>
   <si>
-    <t>Now [id85]'s turn to tell us...</t>
-  </si>
-  <si>
-    <t>Somebody falling.</t>
-  </si>
-  <si>
-    <t>somebody falling</t>
-  </si>
-  <si>
-    <t>Walking?</t>
+    <t xml:space="preserve">Now [id85]'s turn to tell us...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody falling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody falling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking?</t>
   </si>
   <si>
     <t xml:space="preserve"> Can you say that again, [id85]?</t>
   </si>
   <si>
-    <t>This guy.</t>
-  </si>
-  <si>
-    <t>Try to touch it with your finger.</t>
-  </si>
-  <si>
-    <t>Here you go.</t>
-  </si>
-  <si>
-    <t>Smurphy can't touch it yet.</t>
-  </si>
-  <si>
-    <t>Why?</t>
-  </si>
-  <si>
-    <t>Because his fingers don't work on the iPad or his hands.</t>
-  </si>
-  <si>
-    <t>I see a person on a boat floating.</t>
-  </si>
-  <si>
-    <t>a person on a boat floating</t>
-  </si>
-  <si>
-    <t>Great job.</t>
+    <t xml:space="preserve">This guy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to touch it with your finger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here you go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy can't touch it yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because his fingers don't work on the iPad or his hands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person on a boat floating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person on a boat floating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job.</t>
   </si>
   <si>
     <t xml:space="preserve"> With your fingers, oh, there you go.</t>
   </si>
   <si>
-    <t>Now it's your turn to tell us.</t>
-  </si>
-  <si>
-    <t>And [id84] is trying to guess.</t>
-  </si>
-  <si>
-    <t>I want like a different one that bird's</t>
-  </si>
-  <si>
-    <t>a picture like that.</t>
+    <t xml:space="preserve">Now it's your turn to tell us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And [id84] is trying to guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want like a different one that bird's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a picture like that.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, these are just different pictures.</t>
   </si>
   <si>
-    <t>They're very random.</t>
+    <t xml:space="preserve">They're very random.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, keep switching.</t>
   </si>
   <si>
-    <t>Touch the one you think it is.</t>
+    <t xml:space="preserve">Touch the one you think it is.</t>
   </si>
   <si>
     <t xml:space="preserve"> [id84], can you say what you see again?</t>
   </si>
   <si>
-    <t>A person flying.</t>
+    <t xml:space="preserve">A person flying.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now [id84]'s gonna guess and [id85]'s gonna tell.</t>
@@ -677,49 +693,49 @@
     <t xml:space="preserve"> Um, somebody on the boat.</t>
   </si>
   <si>
-    <t>somebody on the boat</t>
+    <t xml:space="preserve">somebody on the boat</t>
   </si>
   <si>
     <t xml:space="preserve"> Great, guys! You guys are doing so good.</t>
   </si>
   <si>
-    <t>Keep going!</t>
-  </si>
-  <si>
-    <t>I see a person holding a trumpet.</t>
-  </si>
-  <si>
-    <t>a person holding a trumpet</t>
+    <t xml:space="preserve">Keep going!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a person holding a trumpet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a person holding a trumpet</t>
   </si>
   <si>
     <t xml:space="preserve"> Remember, use your words.</t>
   </si>
   <si>
-    <t>You see a person watching.</t>
-  </si>
-  <si>
-    <t>I think Smarfi's fingers must get a little bit a bit happy.</t>
+    <t xml:space="preserve">You see a person watching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think Smarfi's fingers must get a little bit a bit happy.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, okay, well let's keep telling so we can help Smurphy finish the game.</t>
   </si>
   <si>
-    <t>I just have a unicorn.</t>
-  </si>
-  <si>
-    <t>have a unicorn that has heavy foot.</t>
-  </si>
-  <si>
-    <t>Yeah?</t>
-  </si>
-  <si>
-    <t>How about one day I can bring him and show you?</t>
+    <t xml:space="preserve">I just have a unicorn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a unicorn that has heavy foot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How about one day I can bring him and show you?</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, maybe one day.</t>
   </si>
   <si>
-    <t>Let's finish the game so we can go back soon.</t>
+    <t xml:space="preserve">Let's finish the game so we can go back soon.</t>
   </si>
   <si>
     <t xml:space="preserve"> And need tomorrow in the coming because he actually,</t>
@@ -728,16 +744,16 @@
     <t xml:space="preserve"> and tomorrow will be in, in a park that all these</t>
   </si>
   <si>
-    <t>bicycles and scooters.</t>
-  </si>
-  <si>
-    <t>That's really cool.</t>
-  </si>
-  <si>
-    <t>Cool. Can you tell [id84] what you see in the black box?</t>
-  </si>
-  <si>
-    <t>I see somebody walking.</t>
+    <t xml:space="preserve">bicycles and scooters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's really cool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cool. Can you tell [id84] what you see in the black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see somebody walking.</t>
   </si>
   <si>
     <t xml:space="preserve"> Let's keep telling and guessing, okay? And then you can tell me your stories after.</t>
@@ -746,39 +762,66 @@
     <t xml:space="preserve"> Oh, you guys finished the game!</t>
   </si>
   <si>
-    <t>I want another round.</t>
-  </si>
-  <si>
-    <t>That was the last one! Good job!</t>
-  </si>
-  <si>
-    <t>I want another round!</t>
-  </si>
-  <si>
-    <t>Thank you so much for playing!</t>
+    <t xml:space="preserve">I want another round.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That was the last one! Good job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want another round!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you so much for playing!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -786,41 +829,132 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF1F1F1F"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -831,94 +965,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -926,33 +1056,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -965,13 +1086,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -981,15 +1096,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -997,7 +1110,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1005,11 +1117,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1018,22 +1130,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J258" activeCellId="0" sqref="J258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="36.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,12 +1173,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2000.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -1073,12 +1187,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8000.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>8000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1087,12 +1201,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>8000.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>8000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>14000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1101,12 +1215,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>14000.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16000.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>16000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1115,12 +1229,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>16000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>18000.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>18000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1129,12 +1243,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>18000.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20000.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>18000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>20000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -1143,12 +1257,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>20000.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>24000.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>24000</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1157,12 +1271,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>24000.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>25000.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>24000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>25000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1171,12 +1285,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>25000.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>29000.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>25000</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>29000</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1185,12 +1299,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>29000.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>30000.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>29000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>30000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -1199,12 +1313,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>30000.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>31000.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>31000</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -1213,12 +1327,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>31000.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>32000.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>31000</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>32000</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -1227,12 +1341,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>32000.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>33000.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>32000</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>33000</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -1241,12 +1355,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>33000.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>34000.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>33000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>34000</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -1255,12 +1369,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>34000.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>35000.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>34000</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>35000</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
@@ -1269,12 +1383,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>35000.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>39000.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>35000</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>39000</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -1283,12 +1397,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>39000.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>41000.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>39000</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>41000</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
@@ -1297,12 +1411,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>41000.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>42000.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>41000</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>42000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1311,12 +1425,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>42000.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>46000.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>42000</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>46000</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>29</v>
@@ -1325,12 +1439,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>46000.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>48000.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>48000</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>30</v>
@@ -1339,12 +1453,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>48000.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>49000.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>48000</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>49000</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
@@ -1353,12 +1467,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>49000.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>50000.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>49000</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>50000</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -1367,12 +1481,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>51000.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>51000</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
@@ -1381,12 +1495,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>51000.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>52000.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>51000</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>52000</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -1395,12 +1509,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>51000.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>52000.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>51000</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>52000</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
@@ -1409,12 +1523,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>52000.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>57000.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>52000</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>57000</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
@@ -1423,12 +1537,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>57000.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>61000.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>57000</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>61000</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
@@ -1437,12 +1551,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>61000.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>62000.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>61000</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>62000</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>37</v>
@@ -1451,12 +1565,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>62000.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>63000.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>62000</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>63000</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -1465,12 +1579,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>63000.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>67000.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>63000</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>67000</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -1479,12 +1593,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>67000.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>71000.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>67000</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>71000</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -1493,12 +1607,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>71000.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>74000.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>71000</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>74000</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -1507,12 +1621,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>74000.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>81000.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>74000</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>81000</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
@@ -1521,12 +1635,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>81000.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>84000.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>81000</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>84000</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -1535,12 +1649,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>84000.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>87000.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>84000</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>87000</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
@@ -1549,12 +1663,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>87000.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>94000.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>87000</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>94000</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -1563,12 +1677,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>94000.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>98720.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>94000</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>98720</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>45</v>
@@ -1577,12 +1691,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>99160.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>99400.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>99160</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>99400</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>46</v>
@@ -1591,12 +1705,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>100200.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>102260.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>100200</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>102260</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>47</v>
@@ -1605,12 +1719,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>103300.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>104000.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>103300</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>104000</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>48</v>
@@ -1619,12 +1733,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>104200.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>104900.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>104200</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>104900</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -1633,12 +1747,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>105400.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>107440.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>105400</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>107440</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>50</v>
@@ -1647,12 +1761,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>107620.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>110180.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>107620</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>110180</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>51</v>
@@ -1661,12 +1775,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>110180.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>110500.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>110180</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>110500</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
@@ -1675,12 +1789,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>110620.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>111340.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>110620</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>111340</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>53</v>
@@ -1689,12 +1803,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>111340.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>113020.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>111340</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>113020</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
@@ -1703,12 +1817,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>113720.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>114020.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>113720</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>114020</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>24</v>
@@ -1717,12 +1831,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>114340.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>114540.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>114340</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>114540</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>17</v>
@@ -1731,12 +1845,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>114660.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>115460.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>114660</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>115460</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>55</v>
@@ -1745,12 +1859,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>115640.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>115900.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>115640</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>115900</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>21</v>
@@ -1759,12 +1873,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>116380.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>116820.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>116380</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>116820</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>17</v>
@@ -1773,12 +1887,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>117400.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>121340.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>117400</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>121340</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>56</v>
@@ -1787,12 +1901,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>121340.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>122580.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>121340</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>122580</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>57</v>
@@ -1801,12 +1915,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>123020.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>123160.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>123020</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>123160</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>28</v>
@@ -1815,12 +1929,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>123300.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>124200.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>123300</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>124200</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>58</v>
@@ -1829,12 +1943,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>125700.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>126220.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>125700</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>126220</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>59</v>
@@ -1843,12 +1957,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>126380.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>126540.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>126380</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>126540</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>17</v>
@@ -1857,12 +1971,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>126660.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>127560.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>126660</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>127560</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>60</v>
@@ -1871,12 +1985,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>128000.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>128840.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>128000</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>128840</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>61</v>
@@ -1885,12 +1999,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>129040.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>129280.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>129040</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>129280</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>17</v>
@@ -1899,12 +2013,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>130260.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>133080.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>130260</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>133080</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>62</v>
@@ -1913,12 +2027,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>133660.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>134240.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>133660</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>134240</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>63</v>
@@ -1927,12 +2041,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>134240.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>137240.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>134240</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>137240</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>64</v>
@@ -1941,12 +2055,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>139240.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>140240.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>139240</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>140240</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>65</v>
@@ -1955,12 +2069,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>140240.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>141240.0</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>140240</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>141240</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>67</v>
@@ -1969,12 +2083,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>141240.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>143240.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>141240</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>143240</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>68</v>
@@ -1983,12 +2097,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>143240.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>145240.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>143240</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>145240</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>69</v>
@@ -1997,12 +2111,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>145240.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>149240.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>145240</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>149240</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>63</v>
@@ -2011,12 +2125,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>149240.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>152240.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>149240</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>152240</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>17</v>
@@ -2025,12 +2139,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>152240.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>156240.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>152240</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>156240</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>70</v>
@@ -2039,12 +2153,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>156240.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>157240.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>156240</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>157240</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>71</v>
@@ -2053,12 +2167,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>157240.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>159240.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>157240</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>159240</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>72</v>
@@ -2067,12 +2181,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>159240.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>161240.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>159240</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>161240</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>21</v>
@@ -2081,12 +2195,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>161240.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>163240.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>161240</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>163240</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>73</v>
@@ -2095,12 +2209,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>163240.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>168240.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>163240</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>168240</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>74</v>
@@ -2109,12 +2223,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>168240.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>169240.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>168240</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>169240</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>28</v>
@@ -2123,12 +2237,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>169240.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>170240.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>169240</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>170240</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>75</v>
@@ -2137,12 +2251,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>170240.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>179240.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>170240</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>179240</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>76</v>
@@ -2151,12 +2265,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>179240.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>184240.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>179240</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>184240</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>77</v>
@@ -2165,12 +2279,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>184240.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>192240.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>184240</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>192240</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>78</v>
@@ -2179,12 +2293,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>192240.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>195240.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>192240</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>195240</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>79</v>
@@ -2193,12 +2307,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>195240.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>200240.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>195240</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>200240</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>80</v>
@@ -2207,12 +2321,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>200240.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>205240.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>200240</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>205240</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>81</v>
@@ -2221,12 +2335,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>209240.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>215240.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>209240</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>215240</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>82</v>
@@ -2235,12 +2349,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>215240.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>220240.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>215240</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>220240</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>83</v>
@@ -2249,12 +2363,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>220240.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>223240.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>220240</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>223240</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>84</v>
@@ -2263,12 +2377,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>223240.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>225240.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>223240</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>225240</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>85</v>
@@ -2277,12 +2391,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>225240.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>229240.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>225240</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>229240</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>86</v>
@@ -2291,12 +2405,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>229240.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>231240.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>229240</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>231240</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>87</v>
@@ -2305,12 +2419,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>231240.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>237240.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>231240</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>237240</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>88</v>
@@ -2319,12 +2433,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>237240.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>238240.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>237240</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>238240</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>89</v>
@@ -2333,12 +2447,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>238240.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>240240.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>238240</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>240240</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>90</v>
@@ -2347,12 +2461,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>240240.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>241240.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>240240</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>241240</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>91</v>
@@ -2361,12 +2475,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>241240.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>243240.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>241240</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>243240</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>92</v>
@@ -2375,12 +2489,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>243240.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>246240.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>243240</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>246240</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>93</v>
@@ -2389,12 +2503,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>246240.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>247240.0</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>246240</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>247240</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>94</v>
@@ -2403,12 +2517,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>247240.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>271240.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>247240</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>271240</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>95</v>
@@ -2417,12 +2531,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>271240.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>274960.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>271240</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>274960</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>96</v>
@@ -2431,12 +2545,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>274960.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>278560.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>274960</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>278560</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>97</v>
@@ -2445,12 +2559,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>278560.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>279560.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>278560</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>279560</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>98</v>
@@ -2459,12 +2573,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>279560.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>281060.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>279560</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>281060</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>99</v>
@@ -2473,12 +2587,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>281060.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>282000.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>281060</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>282000</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>100</v>
@@ -2487,12 +2601,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>282000.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>283000.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>282000</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>283000</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>25</v>
@@ -2501,12 +2615,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>283000.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>284000.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>283000</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>284000</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>17</v>
@@ -2515,12 +2629,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>284000.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>288240.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>284000</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>288240</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>101</v>
@@ -2529,12 +2643,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>288240.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>290480.0</v>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>288240</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>290480</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>25</v>
@@ -2543,12 +2657,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>290480.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>293480.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>290480</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>293480</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>102</v>
@@ -2557,12 +2671,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>293480.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>296120.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>293480</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>296120</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>103</v>
@@ -2571,12 +2685,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>299360.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>301220.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>299360</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>301220</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>104</v>
@@ -2585,12 +2699,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>301220.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>305040.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>301220</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>305040</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>105</v>
@@ -2599,12 +2713,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>305460.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>307200.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>305460</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>307200</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>106</v>
@@ -2613,12 +2727,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>307500.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>307920.0</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>307500</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>307920</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>107</v>
@@ -2627,12 +2741,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>308220.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>308380.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>308220</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>308380</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>28</v>
@@ -2641,12 +2755,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>308400.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>308640.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>308400</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>308640</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>17</v>
@@ -2655,12 +2769,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>309000.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>310540.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>309000</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>310540</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>108</v>
@@ -2669,12 +2783,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>311860.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>312180.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>311860</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>312180</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>59</v>
@@ -2683,12 +2797,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>314680.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>315160.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>314680</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>315160</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>17</v>
@@ -2697,12 +2811,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>318660.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>321440.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>318660</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>321440</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>109</v>
@@ -2711,12 +2825,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>322900.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>324160.0</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>322900</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>324160</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>110</v>
@@ -2725,12 +2839,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>324220.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>324760.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>324220</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>324760</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>96</v>
@@ -2739,12 +2853,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>326120.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>326520.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>326120</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>326520</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>24</v>
@@ -2753,12 +2867,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>327020.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>328720.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>327020</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>328720</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>111</v>
@@ -2767,12 +2881,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>328720.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>333020.0</v>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>328720</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>333020</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>112</v>
@@ -2781,12 +2895,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>333020.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>334020.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>333020</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>334020</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>63</v>
@@ -2794,8 +2908,8 @@
       <c r="D125" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E125" s="1">
-        <v>0.0</v>
+      <c r="E125" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>113</v>
@@ -2804,12 +2918,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>334020.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>337520.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>334020</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>337520</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>115</v>
@@ -2818,12 +2932,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>337520.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>340520.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>337520</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>340520</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>116</v>
@@ -2832,12 +2946,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>340520.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>341620.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>340520</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>341620</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>117</v>
@@ -2846,12 +2960,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>341620.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>343620.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>341620</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>343620</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>118</v>
@@ -2860,12 +2974,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>343620.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>344620.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>343620</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>344620</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>17</v>
@@ -2874,12 +2988,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>344620.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>347320.0</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>344620</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>347320</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>119</v>
@@ -2888,12 +3002,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>347320.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>348320.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>347320</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>348320</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>28</v>
@@ -2902,12 +3016,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>348320.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>350520.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>348320</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>350520</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>120</v>
@@ -2916,12 +3030,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>350520.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>353120.0</v>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>350520</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>353120</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>121</v>
@@ -2929,8 +3043,8 @@
       <c r="D134" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="1">
-        <v>1.0</v>
+      <c r="E134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>113</v>
@@ -2939,12 +3053,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>354120.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>356320.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>354120</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>356320</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>116</v>
@@ -2953,12 +3067,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>357320.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>358320.0</v>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>357320</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>358320</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>123</v>
@@ -2967,12 +3081,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>358320.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>359320.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>358320</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>359320</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>124</v>
@@ -2981,12 +3095,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>359320.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>360320.0</v>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>359320</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>360320</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>125</v>
@@ -2994,8 +3108,8 @@
       <c r="D138" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E138" s="1">
-        <v>2.0</v>
+      <c r="E138" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>113</v>
@@ -3004,12 +3118,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>360320.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>364320.0</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>360320</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>364320</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>127</v>
@@ -3018,12 +3132,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>364320.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>366320.0</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>364320</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>366320</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>116</v>
@@ -3032,12 +3146,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>367320.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>373320.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>367320</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>373320</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>128</v>
@@ -3046,12 +3160,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>373320.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>374320.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>373320</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>374320</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>129</v>
@@ -3060,12 +3174,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>374320.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>375320.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>374320</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>375320</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>130</v>
@@ -3074,12 +3188,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>375320.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>377320.0</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>375320</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>377320</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>131</v>
@@ -3088,12 +3202,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>377320.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>378320.0</v>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>377320</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>378320</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>132</v>
@@ -3102,12 +3216,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>378320.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>379320.0</v>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>378320</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>379320</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>133</v>
@@ -3116,12 +3230,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>379320.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>380320.0</v>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>379320</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>380320</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>134</v>
@@ -3130,12 +3244,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>380320.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>383700.0</v>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>380320</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>383700</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>135</v>
@@ -3144,12 +3258,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>384860.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>385740.0</v>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>384860</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>385740</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>136</v>
@@ -3157,8 +3271,8 @@
       <c r="D149" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E149" s="1">
-        <v>3.0</v>
+      <c r="E149" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>113</v>
@@ -3167,12 +3281,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>388620.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>391460.0</v>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>388620</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>391460</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>138</v>
@@ -3181,12 +3295,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>391620.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>392840.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>391620</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>392840</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>139</v>
@@ -3197,16 +3311,14 @@
       <c r="F151" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>392960.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>393240.0</v>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>392960</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>393240</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>28</v>
@@ -3215,12 +3327,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>395100.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>396180.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>395100</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>396180</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>140</v>
@@ -3228,19 +3340,19 @@
       <c r="D153" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="1">
-        <v>4.0</v>
+      <c r="E153" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>397160.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>398660.0</v>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>397160</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>398660</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>141</v>
@@ -3249,12 +3361,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>399460.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>400100.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>399460</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>400100</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>142</v>
@@ -3269,12 +3381,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>405420.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>406980.0</v>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>405420</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>406980</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>144</v>
@@ -3283,12 +3395,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>407840.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>409200.0</v>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>407840</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>409200</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>145</v>
@@ -3303,12 +3415,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>409200.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>411200.0</v>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>409200</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>411200</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>147</v>
@@ -3320,12 +3432,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>411200.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>415200.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>411200</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>415200</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>148</v>
@@ -3334,12 +3446,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>415200.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>417200.0</v>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>415200</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>417200</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>65</v>
@@ -3348,12 +3460,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>417200.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>419200.0</v>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>417200</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>419200</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>116</v>
@@ -3362,12 +3474,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>419200.0</v>
-      </c>
-      <c r="B162" s="1">
-        <v>421200.0</v>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>419200</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>421200</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>149</v>
@@ -3376,12 +3488,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>421200.0</v>
-      </c>
-      <c r="B163" s="1">
-        <v>423200.0</v>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>421200</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>423200</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>124</v>
@@ -3390,12 +3502,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>423200.0</v>
-      </c>
-      <c r="B164" s="1">
-        <v>425200.0</v>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>423200</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>425200</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>150</v>
@@ -3407,12 +3519,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>425200.0</v>
-      </c>
-      <c r="B165" s="1">
-        <v>429200.0</v>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>425200</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>429200</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>151</v>
@@ -3421,12 +3533,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>429200.0</v>
-      </c>
-      <c r="B166" s="1">
-        <v>433200.0</v>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>429200</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>433200</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>152</v>
@@ -3434,8 +3546,8 @@
       <c r="D166" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E166" s="1">
-        <v>5.0</v>
+      <c r="E166" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>113</v>
@@ -3444,12 +3556,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>433200.0</v>
-      </c>
-      <c r="B167" s="1">
-        <v>435200.0</v>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>433200</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>435200</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>65</v>
@@ -3458,12 +3570,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>435200.0</v>
-      </c>
-      <c r="B168" s="1">
-        <v>437200.0</v>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>435200</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>437200</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>154</v>
@@ -3472,12 +3584,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>437200.0</v>
-      </c>
-      <c r="B169" s="1">
-        <v>444200.0</v>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>437200</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>444200</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>155</v>
@@ -3485,8 +3597,8 @@
       <c r="D169" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E169" s="1">
-        <v>6.0</v>
+      <c r="E169" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>113</v>
@@ -3495,12 +3607,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>444200.0</v>
-      </c>
-      <c r="B170" s="1">
-        <v>447200.0</v>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>444200</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>447200</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>157</v>
@@ -3509,12 +3621,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>447200.0</v>
-      </c>
-      <c r="B171" s="1">
-        <v>452200.0</v>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>447200</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>452200</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>158</v>
@@ -3523,12 +3635,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>452200.0</v>
-      </c>
-      <c r="B172" s="1">
-        <v>454200.0</v>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>452200</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>454200</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>159</v>
@@ -3536,8 +3648,8 @@
       <c r="D172" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E172" s="1">
-        <v>7.0</v>
+      <c r="E172" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>113</v>
@@ -3546,12 +3658,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>454200.0</v>
-      </c>
-      <c r="B173" s="1">
-        <v>455200.0</v>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>454200</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>455200</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>161</v>
@@ -3560,12 +3672,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>455200.0</v>
-      </c>
-      <c r="B174" s="1">
-        <v>457200.0</v>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>455200</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>457200</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>65</v>
@@ -3574,12 +3686,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>457200.0</v>
-      </c>
-      <c r="B175" s="1">
-        <v>459200.0</v>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>457200</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>459200</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>116</v>
@@ -3588,12 +3700,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>459200.0</v>
-      </c>
-      <c r="B176" s="1">
-        <v>461200.0</v>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>459200</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>461200</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>162</v>
@@ -3602,12 +3714,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>461200.0</v>
-      </c>
-      <c r="B177" s="1">
-        <v>463200.0</v>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>461200</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>463200</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>163</v>
@@ -3616,12 +3728,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>463200.0</v>
-      </c>
-      <c r="B178" s="1">
-        <v>465200.0</v>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>463200</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>465200</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>164</v>
@@ -3629,8 +3741,8 @@
       <c r="D178" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E178" s="1">
-        <v>8.0</v>
+      <c r="E178" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>113</v>
@@ -3639,12 +3751,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1">
-        <v>465200.0</v>
-      </c>
-      <c r="B179" s="1">
-        <v>470200.0</v>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>465200</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>470200</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>166</v>
@@ -3656,12 +3768,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1">
-        <v>472200.0</v>
-      </c>
-      <c r="B180" s="1">
-        <v>474200.0</v>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>472200</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>474200</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>168</v>
@@ -3670,12 +3782,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1">
-        <v>474200.0</v>
-      </c>
-      <c r="B181" s="1">
-        <v>478200.0</v>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>474200</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>478200</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>169</v>
@@ -3684,12 +3796,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1">
-        <v>478200.0</v>
-      </c>
-      <c r="B182" s="1">
-        <v>480200.0</v>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>478200</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>480200</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>170</v>
@@ -3697,8 +3809,8 @@
       <c r="D182" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E182" s="1">
-        <v>9.0</v>
+      <c r="E182" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>113</v>
@@ -3707,12 +3819,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1">
-        <v>480200.0</v>
-      </c>
-      <c r="B183" s="1">
-        <v>485200.0</v>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>480200</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>485200</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>172</v>
@@ -3721,12 +3833,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1">
-        <v>485200.0</v>
-      </c>
-      <c r="B184" s="1">
-        <v>488200.0</v>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>485200</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>488200</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>173</v>
@@ -3735,12 +3847,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1">
-        <v>488200.0</v>
-      </c>
-      <c r="B185" s="1">
-        <v>490200.0</v>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>488200</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>490200</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>174</v>
@@ -3748,8 +3860,8 @@
       <c r="D185" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E185" s="1">
-        <v>10.0</v>
+      <c r="E185" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>113</v>
@@ -3758,12 +3870,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1">
-        <v>490200.0</v>
-      </c>
-      <c r="B186" s="1">
-        <v>493200.0</v>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>490200</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>493200</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>175</v>
@@ -3775,12 +3887,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1">
-        <v>493200.0</v>
-      </c>
-      <c r="B187" s="1">
-        <v>494200.0</v>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>493200</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>494200</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>176</v>
@@ -3789,12 +3901,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1">
-        <v>494200.0</v>
-      </c>
-      <c r="B188" s="1">
-        <v>499880.0</v>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>494200</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>499880</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>177</v>
@@ -3803,12 +3915,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1">
-        <v>494200.0</v>
-      </c>
-      <c r="B189" s="1">
-        <v>499880.0</v>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>494200</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>499880</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>178</v>
@@ -3817,12 +3929,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1">
-        <v>499880.0</v>
-      </c>
-      <c r="B190" s="1">
-        <v>507400.0</v>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>499880</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>507400</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>179</v>
@@ -3831,12 +3943,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1">
-        <v>499880.0</v>
-      </c>
-      <c r="B191" s="1">
-        <v>507400.0</v>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>499880</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>507400</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>180</v>
@@ -3844,8 +3956,8 @@
       <c r="D191" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E191" s="1">
-        <v>11.0</v>
+      <c r="E191" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>113</v>
@@ -3854,12 +3966,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1">
-        <v>507400.0</v>
-      </c>
-      <c r="B192" s="1">
-        <v>519800.0</v>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>507400</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>519800</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>182</v>
@@ -3868,12 +3980,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1">
-        <v>507400.0</v>
-      </c>
-      <c r="B193" s="1">
-        <v>519800.0</v>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>507400</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>519800</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>183</v>
@@ -3881,8 +3993,8 @@
       <c r="D193" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E193" s="1">
-        <v>12.0</v>
+      <c r="E193" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>113</v>
@@ -3891,12 +4003,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1">
-        <v>519800.0</v>
-      </c>
-      <c r="B194" s="1">
-        <v>524180.0</v>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>519800</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>524180</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>185</v>
@@ -3905,12 +4017,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1">
-        <v>524180.0</v>
-      </c>
-      <c r="B195" s="1">
-        <v>525180.0</v>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>524180</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>525180</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>186</v>
@@ -3922,12 +4034,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1">
-        <v>525180.0</v>
-      </c>
-      <c r="B196" s="1">
-        <v>527180.0</v>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>525180</v>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>527180</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>187</v>
@@ -3936,12 +4048,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1">
-        <v>527180.0</v>
-      </c>
-      <c r="B197" s="1">
-        <v>529180.0</v>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>527180</v>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>529180</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>188</v>
@@ -3950,12 +4062,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1">
-        <v>529180.0</v>
-      </c>
-      <c r="B198" s="1">
-        <v>531180.0</v>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>529180</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>531180</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>189</v>
@@ -3964,12 +4076,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1">
-        <v>531180.0</v>
-      </c>
-      <c r="B199" s="1">
-        <v>532180.0</v>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>531180</v>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>532180</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>190</v>
@@ -3977,8 +4089,8 @@
       <c r="D199" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E199" s="1">
-        <v>13.0</v>
+      <c r="E199" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>113</v>
@@ -3987,12 +4099,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1">
-        <v>532180.0</v>
-      </c>
-      <c r="B200" s="1">
-        <v>534180.0</v>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>532180</v>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>534180</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>192</v>
@@ -4004,12 +4116,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1">
-        <v>534180.0</v>
-      </c>
-      <c r="B201" s="1">
-        <v>537180.0</v>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>534180</v>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>537180</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>193</v>
@@ -4018,12 +4130,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1">
-        <v>537180.0</v>
-      </c>
-      <c r="B202" s="1">
-        <v>539180.0</v>
+    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>537180</v>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>539180</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>190</v>
@@ -4038,12 +4150,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1">
-        <v>539180.0</v>
-      </c>
-      <c r="B203" s="1">
-        <v>540180.0</v>
+    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>539180</v>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>540180</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>194</v>
@@ -4055,12 +4167,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1">
-        <v>540180.0</v>
-      </c>
-      <c r="B204" s="1">
-        <v>543180.0</v>
+    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>540180</v>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>543180</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>195</v>
@@ -4069,12 +4181,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1">
-        <v>543180.0</v>
-      </c>
-      <c r="B205" s="1">
-        <v>544180.0</v>
+    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>543180</v>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>544180</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>196</v>
@@ -4083,12 +4195,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1">
-        <v>544180.0</v>
-      </c>
-      <c r="B206" s="1">
-        <v>546180.0</v>
+    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>544180</v>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>546180</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>197</v>
@@ -4097,12 +4209,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1">
-        <v>546180.0</v>
-      </c>
-      <c r="B207" s="1">
-        <v>547180.0</v>
+    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>546180</v>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>547180</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>198</v>
@@ -4114,12 +4226,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1">
-        <v>547180.0</v>
-      </c>
-      <c r="B208" s="1">
-        <v>550180.0</v>
+    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>547180</v>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>550180</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>199</v>
@@ -4128,12 +4240,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1">
-        <v>550180.0</v>
-      </c>
-      <c r="B209" s="1">
-        <v>555180.0</v>
+    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>550180</v>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>555180</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>200</v>
@@ -4141,8 +4253,8 @@
       <c r="D209" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E209" s="1">
-        <v>14.0</v>
+      <c r="E209" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>113</v>
@@ -4151,12 +4263,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1">
-        <v>555180.0</v>
-      </c>
-      <c r="B210" s="1">
-        <v>557180.0</v>
+    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>555180</v>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>557180</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>202</v>
@@ -4165,12 +4277,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1">
-        <v>557180.0</v>
-      </c>
-      <c r="B211" s="1">
-        <v>560180.0</v>
+    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <v>557180</v>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>560180</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>203</v>
@@ -4179,12 +4291,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1">
-        <v>560180.0</v>
-      </c>
-      <c r="B212" s="1">
-        <v>562180.0</v>
+    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <v>560180</v>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>562180</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>204</v>
@@ -4193,12 +4305,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1">
-        <v>562180.0</v>
-      </c>
-      <c r="B213" s="1">
-        <v>564180.0</v>
+    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <v>562180</v>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>564180</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>205</v>
@@ -4207,12 +4319,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1">
-        <v>564180.0</v>
-      </c>
-      <c r="B214" s="1">
-        <v>567180.0</v>
+    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <v>564180</v>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>567180</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>206</v>
@@ -4224,12 +4336,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1">
-        <v>567180.0</v>
-      </c>
-      <c r="B215" s="1">
-        <v>569180.0</v>
+    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <v>567180</v>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>569180</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>207</v>
@@ -4241,12 +4353,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1">
-        <v>569180.0</v>
-      </c>
-      <c r="B216" s="1">
-        <v>571180.0</v>
+    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <v>569180</v>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>571180</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>208</v>
@@ -4255,12 +4367,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1">
-        <v>571180.0</v>
-      </c>
-      <c r="B217" s="1">
-        <v>572180.0</v>
+    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <v>571180</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>572180</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>209</v>
@@ -4269,12 +4381,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1">
-        <v>572180.0</v>
-      </c>
-      <c r="B218" s="1">
-        <v>574180.0</v>
+    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <v>572180</v>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>574180</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>170</v>
@@ -4282,8 +4394,8 @@
       <c r="D218" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E218" s="1">
-        <v>15.0</v>
+      <c r="E218" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>113</v>
@@ -4292,12 +4404,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1">
-        <v>574180.0</v>
-      </c>
-      <c r="B219" s="1">
-        <v>577180.0</v>
+    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <v>574180</v>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>577180</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>116</v>
@@ -4306,12 +4418,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1">
-        <v>577180.0</v>
-      </c>
-      <c r="B220" s="1">
-        <v>579180.0</v>
+    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <v>577180</v>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>579180</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>210</v>
@@ -4320,12 +4432,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1">
-        <v>579180.0</v>
-      </c>
-      <c r="B221" s="1">
-        <v>582180.0</v>
+    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <v>579180</v>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>582180</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>164</v>
@@ -4333,8 +4445,8 @@
       <c r="D221" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E221" s="1">
-        <v>16.0</v>
+      <c r="E221" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>113</v>
@@ -4343,12 +4455,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1">
-        <v>582180.0</v>
-      </c>
-      <c r="B222" s="1">
-        <v>587680.0</v>
+    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <v>582180</v>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>587680</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>211</v>
@@ -4357,12 +4469,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1">
-        <v>587680.0</v>
-      </c>
-      <c r="B223" s="1">
-        <v>590180.0</v>
+    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <v>587680</v>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>590180</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>212</v>
@@ -4371,12 +4483,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1">
-        <v>590180.0</v>
-      </c>
-      <c r="B224" s="1">
-        <v>592180.0</v>
+    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>590180</v>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>592180</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>213</v>
@@ -4391,12 +4503,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1">
-        <v>592180.0</v>
-      </c>
-      <c r="B225" s="1">
-        <v>594180.0</v>
+    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>592180</v>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>594180</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>65</v>
@@ -4405,12 +4517,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1">
-        <v>594180.0</v>
-      </c>
-      <c r="B226" s="1">
-        <v>596180.0</v>
+    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>594180</v>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>596180</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>116</v>
@@ -4419,12 +4531,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1">
-        <v>596180.0</v>
-      </c>
-      <c r="B227" s="1">
-        <v>600180.0</v>
+    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>596180</v>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>600180</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>214</v>
@@ -4433,12 +4545,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1">
-        <v>600180.0</v>
-      </c>
-      <c r="B228" s="1">
-        <v>604180.0</v>
+    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>600180</v>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>604180</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>215</v>
@@ -4446,8 +4558,8 @@
       <c r="D228" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E228" s="1">
-        <v>17.0</v>
+      <c r="E228" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>113</v>
@@ -4456,12 +4568,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1">
-        <v>604180.0</v>
-      </c>
-      <c r="B229" s="1">
-        <v>606180.0</v>
+    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>604180</v>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>606180</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>65</v>
@@ -4470,12 +4582,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1">
-        <v>606180.0</v>
-      </c>
-      <c r="B230" s="1">
-        <v>609180.0</v>
+    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>606180</v>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>609180</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>217</v>
@@ -4484,12 +4596,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1">
-        <v>609180.0</v>
-      </c>
-      <c r="B231" s="1">
-        <v>610180.0</v>
+    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>609180</v>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>610180</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>218</v>
@@ -4498,12 +4610,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1">
-        <v>610180.0</v>
-      </c>
-      <c r="B232" s="1">
-        <v>614180.0</v>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>610180</v>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>614180</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>219</v>
@@ -4511,8 +4623,8 @@
       <c r="D232" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E232" s="1">
-        <v>18.0</v>
+      <c r="E232" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>113</v>
@@ -4521,12 +4633,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1">
-        <v>614180.0</v>
-      </c>
-      <c r="B233" s="1">
-        <v>618180.0</v>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>614180</v>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>618180</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>221</v>
@@ -4535,12 +4647,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1">
-        <v>618180.0</v>
-      </c>
-      <c r="B234" s="1">
-        <v>620180.0</v>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>618180</v>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>620180</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>96</v>
@@ -4549,12 +4661,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1">
-        <v>620180.0</v>
-      </c>
-      <c r="B235" s="1">
-        <v>622180.0</v>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>620180</v>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>622180</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>25</v>
@@ -4563,12 +4675,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1">
-        <v>622180.0</v>
-      </c>
-      <c r="B236" s="1">
-        <v>626180.0</v>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>622180</v>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>626180</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>222</v>
@@ -4576,19 +4688,19 @@
       <c r="D236" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E236" s="1">
-        <v>19.0</v>
+      <c r="E236" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1">
-        <v>626180.0</v>
-      </c>
-      <c r="B237" s="1">
-        <v>634180.0</v>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>626180</v>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>634180</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>223</v>
@@ -4600,12 +4712,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1">
-        <v>634180.0</v>
-      </c>
-      <c r="B238" s="1">
-        <v>638180.0</v>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>634180</v>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>638180</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>224</v>
@@ -4614,12 +4726,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1">
-        <v>638180.0</v>
-      </c>
-      <c r="B239" s="1">
-        <v>639180.0</v>
+    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>638180</v>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>639180</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>225</v>
@@ -4631,12 +4743,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1">
-        <v>639180.0</v>
-      </c>
-      <c r="B240" s="1">
-        <v>641940.0</v>
+    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>639180</v>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>641940</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>226</v>
@@ -4648,12 +4760,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1">
-        <v>641940.0</v>
-      </c>
-      <c r="B241" s="1">
-        <v>642940.0</v>
+    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>641940</v>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>642940</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>227</v>
@@ -4662,12 +4774,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1">
-        <v>642940.0</v>
-      </c>
-      <c r="B242" s="1">
-        <v>643940.0</v>
+    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>642940</v>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>643940</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>17</v>
@@ -4676,12 +4788,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1">
-        <v>643940.0</v>
-      </c>
-      <c r="B243" s="1">
-        <v>645720.0</v>
+    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>643940</v>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>645720</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>228</v>
@@ -4693,12 +4805,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1">
-        <v>645720.0</v>
-      </c>
-      <c r="B244" s="1">
-        <v>647120.0</v>
+    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>645720</v>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>647120</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>229</v>
@@ -4707,12 +4819,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1">
-        <v>647120.0</v>
-      </c>
-      <c r="B245" s="1">
-        <v>648860.0</v>
+    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>647120</v>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>648860</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>230</v>
@@ -4721,12 +4833,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1">
-        <v>648860.0</v>
-      </c>
-      <c r="B246" s="1">
-        <v>649860.0</v>
+    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>648860</v>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>649860</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>17</v>
@@ -4735,12 +4847,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1">
-        <v>649860.0</v>
-      </c>
-      <c r="B247" s="1">
-        <v>654860.0</v>
+    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>649860</v>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>654860</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>231</v>
@@ -4752,12 +4864,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1">
-        <v>654860.0</v>
-      </c>
-      <c r="B248" s="1">
-        <v>664040.0</v>
+    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>654860</v>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>664040</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>232</v>
@@ -4769,12 +4881,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1">
-        <v>666140.0</v>
-      </c>
-      <c r="B249" s="1">
-        <v>667860.0</v>
+    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>666140</v>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>667860</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>233</v>
@@ -4786,12 +4898,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1">
-        <v>667860.0</v>
-      </c>
-      <c r="B250" s="1">
-        <v>668420.0</v>
+    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>667860</v>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>668420</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>17</v>
@@ -4800,12 +4912,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1">
-        <v>668420.0</v>
-      </c>
-      <c r="B251" s="1">
-        <v>669160.0</v>
+    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>668420</v>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>669160</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>234</v>
@@ -4814,12 +4926,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1">
-        <v>669160.0</v>
-      </c>
-      <c r="B252" s="1">
-        <v>672160.0</v>
+    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="n">
+        <v>669160</v>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>672160</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>235</v>
@@ -4828,12 +4940,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1">
-        <v>672160.0</v>
-      </c>
-      <c r="B253" s="1">
-        <v>675160.0</v>
+    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="n">
+        <v>672160</v>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>675160</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>236</v>
@@ -4848,12 +4960,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1">
-        <v>675160.0</v>
-      </c>
-      <c r="B254" s="1">
-        <v>677160.0</v>
+    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="n">
+        <v>675160</v>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>677160</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>65</v>
@@ -4862,12 +4974,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1">
-        <v>677160.0</v>
-      </c>
-      <c r="B255" s="1">
-        <v>681160.0</v>
+    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="n">
+        <v>677160</v>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>681160</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>237</v>
@@ -4876,12 +4988,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1">
-        <v>681160.0</v>
-      </c>
-      <c r="B256" s="1">
-        <v>684160.0</v>
+    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="n">
+        <v>681160</v>
+      </c>
+      <c r="B256" s="1" t="n">
+        <v>684160</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>238</v>
@@ -4890,12 +5002,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1">
-        <v>684160.0</v>
-      </c>
-      <c r="B257" s="1">
-        <v>685160.0</v>
+    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="n">
+        <v>684160</v>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>685160</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>239</v>
@@ -4904,12 +5016,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1">
-        <v>685160.0</v>
-      </c>
-      <c r="B258" s="1">
-        <v>688160.0</v>
+    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="n">
+        <v>685160</v>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>688160</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>240</v>
@@ -4918,12 +5030,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1">
-        <v>688160.0</v>
-      </c>
-      <c r="B259" s="1">
-        <v>690160.0</v>
+    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="n">
+        <v>688160</v>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>690160</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>241</v>
@@ -4932,12 +5044,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1">
-        <v>690160.0</v>
-      </c>
-      <c r="B260" s="1">
-        <v>692160.0</v>
+    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="n">
+        <v>690160</v>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>692160</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>242</v>
@@ -4947,7 +5059,13 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game34.xlsx
+++ b/data/expt_2/raw_transcripts/game34.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="245">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -878,7 +878,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -888,6 +888,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1151,9 +1155,9 @@
   <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F260" activeCellId="0" sqref="F260"/>
+      <selection pane="bottomLeft" activeCell="F190" activeCellId="0" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2993,6 +2997,9 @@
       <c r="D129" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F129" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="n">
@@ -3021,6 +3028,9 @@
       <c r="D131" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F131" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="n">
@@ -3199,6 +3209,9 @@
       <c r="D142" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F142" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="n">
@@ -3255,6 +3268,9 @@
       <c r="D146" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F146" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="n">
@@ -3996,6 +4012,9 @@
       <c r="D189" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F189" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I189" s="3" t="s">
         <v>116</v>
       </c>
@@ -4021,7 +4040,7 @@
       <c r="B191" s="2" t="n">
         <v>507400</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="5" t="s">
         <v>182</v>
       </c>
       <c r="D191" s="2" t="s">

--- a/data/expt_2/raw_transcripts/game34.xlsx
+++ b/data/expt_2/raw_transcripts/game34.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="244">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -478,9 +478,6 @@
   </si>
   <si>
     <t xml:space="preserve">A person.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a person</t>
   </si>
   <si>
     <t xml:space="preserve">Can you tell us a little bit more?</t>
@@ -878,7 +875,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -892,10 +889,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1155,9 +1148,9 @@
   <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F190" activeCellId="0" sqref="F190"/>
+      <selection pane="bottomLeft" activeCell="H224" activeCellId="0" sqref="H224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2997,7 +2990,7 @@
       <c r="D129" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3028,7 +3021,7 @@
       <c r="D131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3428,9 +3421,7 @@
       <c r="F155" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H155" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="H155" s="2"/>
       <c r="I155" s="3" t="s">
         <v>116</v>
       </c>
@@ -3443,7 +3434,7 @@
         <v>406980</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>10</v>
@@ -3457,7 +3448,7 @@
         <v>409200</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>19</v>
@@ -3466,7 +3457,7 @@
         <v>114</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I157" s="3" t="s">
         <v>116</v>
@@ -3480,7 +3471,7 @@
         <v>411200</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>19</v>
@@ -3500,7 +3491,7 @@
         <v>415200</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>10</v>
@@ -3542,7 +3533,7 @@
         <v>421200</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>10</v>
@@ -3570,7 +3561,7 @@
         <v>425200</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>19</v>
@@ -3587,7 +3578,7 @@
         <v>429200</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>10</v>
@@ -3601,7 +3592,7 @@
         <v>433200</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>15</v>
@@ -3613,7 +3604,7 @@
         <v>114</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>116</v>
@@ -3641,7 +3632,7 @@
         <v>437200</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>10</v>
@@ -3655,7 +3646,7 @@
         <v>444200</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>19</v>
@@ -3667,7 +3658,7 @@
         <v>114</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>116</v>
@@ -3681,7 +3672,7 @@
         <v>447200</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>10</v>
@@ -3695,7 +3686,7 @@
         <v>452200</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>10</v>
@@ -3709,7 +3700,7 @@
         <v>454200</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>15</v>
@@ -3721,7 +3712,7 @@
         <v>114</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>116</v>
@@ -3735,7 +3726,7 @@
         <v>455200</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>10</v>
@@ -3777,7 +3768,7 @@
         <v>461200</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>10</v>
@@ -3791,7 +3782,7 @@
         <v>463200</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>10</v>
@@ -3805,7 +3796,7 @@
         <v>465200</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>19</v>
@@ -3817,7 +3808,7 @@
         <v>114</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I178" s="3" t="s">
         <v>116</v>
@@ -3831,13 +3822,13 @@
         <v>470200</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I179" s="3" t="s">
         <v>116</v>
@@ -3851,7 +3842,7 @@
         <v>474200</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>10</v>
@@ -3865,7 +3856,7 @@
         <v>478200</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>10</v>
@@ -3879,7 +3870,7 @@
         <v>480200</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>15</v>
@@ -3891,7 +3882,7 @@
         <v>114</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I182" s="3" t="s">
         <v>116</v>
@@ -3905,7 +3896,7 @@
         <v>485200</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>10</v>
@@ -3919,7 +3910,7 @@
         <v>488200</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>10</v>
@@ -3933,7 +3924,7 @@
         <v>490200</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>19</v>
@@ -3945,7 +3936,7 @@
         <v>114</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I185" s="3" t="s">
         <v>116</v>
@@ -3959,13 +3950,13 @@
         <v>493200</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I186" s="3" t="s">
         <v>116</v>
@@ -3979,7 +3970,7 @@
         <v>494200</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>10</v>
@@ -3993,7 +3984,7 @@
         <v>499880</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>10</v>
@@ -4007,12 +3998,12 @@
         <v>499880</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F189" s="4" t="s">
+      <c r="F189" s="3" t="s">
         <v>114</v>
       </c>
       <c r="I189" s="3" t="s">
@@ -4027,7 +4018,7 @@
         <v>507400</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>10</v>
@@ -4040,8 +4031,8 @@
       <c r="B191" s="2" t="n">
         <v>507400</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>182</v>
+      <c r="C191" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>15</v>
@@ -4053,7 +4044,7 @@
         <v>114</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I191" s="3" t="s">
         <v>116</v>
@@ -4067,7 +4058,7 @@
         <v>519800</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>10</v>
@@ -4081,7 +4072,7 @@
         <v>519800</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>19</v>
@@ -4093,7 +4084,7 @@
         <v>114</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I193" s="3" t="s">
         <v>116</v>
@@ -4107,7 +4098,7 @@
         <v>524180</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>10</v>
@@ -4121,13 +4112,13 @@
         <v>525180</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,7 +4129,7 @@
         <v>527180</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>10</v>
@@ -4152,7 +4143,7 @@
         <v>529180</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>10</v>
@@ -4166,7 +4157,7 @@
         <v>531180</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>10</v>
@@ -4180,7 +4171,7 @@
         <v>532180</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>15</v>
@@ -4192,7 +4183,7 @@
         <v>114</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I199" s="3" t="s">
         <v>116</v>
@@ -4206,13 +4197,13 @@
         <v>534180</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I200" s="3" t="s">
         <v>116</v>
@@ -4226,7 +4217,7 @@
         <v>537180</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>10</v>
@@ -4240,7 +4231,7 @@
         <v>539180</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>15</v>
@@ -4248,9 +4239,7 @@
       <c r="F202" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H202" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="H202" s="2"/>
       <c r="I202" s="3" t="s">
         <v>116</v>
       </c>
@@ -4263,13 +4252,13 @@
         <v>540180</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,7 +4269,7 @@
         <v>543180</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>10</v>
@@ -4294,7 +4283,7 @@
         <v>544180</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>10</v>
@@ -4308,7 +4297,7 @@
         <v>546180</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>10</v>
@@ -4322,13 +4311,13 @@
         <v>547180</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,7 +4328,7 @@
         <v>550180</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>10</v>
@@ -4353,7 +4342,7 @@
         <v>555180</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>19</v>
@@ -4365,7 +4354,7 @@
         <v>114</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I209" s="3" t="s">
         <v>116</v>
@@ -4379,7 +4368,7 @@
         <v>557180</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>10</v>
@@ -4393,7 +4382,7 @@
         <v>560180</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>10</v>
@@ -4407,7 +4396,7 @@
         <v>562180</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>10</v>
@@ -4421,7 +4410,7 @@
         <v>564180</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>10</v>
@@ -4435,7 +4424,7 @@
         <v>567180</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>19</v>
@@ -4455,7 +4444,7 @@
         <v>569180</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>19</v>
@@ -4475,7 +4464,7 @@
         <v>571180</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>10</v>
@@ -4489,7 +4478,7 @@
         <v>572180</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>10</v>
@@ -4503,7 +4492,7 @@
         <v>574180</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>15</v>
@@ -4515,7 +4504,7 @@
         <v>114</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>116</v>
@@ -4543,7 +4532,7 @@
         <v>579180</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>10</v>
@@ -4557,7 +4546,7 @@
         <v>582180</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>19</v>
@@ -4569,7 +4558,7 @@
         <v>114</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I221" s="3" t="s">
         <v>116</v>
@@ -4583,7 +4572,7 @@
         <v>587680</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>10</v>
@@ -4597,7 +4586,7 @@
         <v>590180</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>10</v>
@@ -4611,7 +4600,7 @@
         <v>592180</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>19</v>
@@ -4619,9 +4608,7 @@
       <c r="F224" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H224" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="H224" s="2"/>
       <c r="I224" s="3" t="s">
         <v>116</v>
       </c>
@@ -4662,7 +4649,7 @@
         <v>600180</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>10</v>
@@ -4676,7 +4663,7 @@
         <v>604180</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>15</v>
@@ -4688,7 +4675,7 @@
         <v>114</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I228" s="3" t="s">
         <v>116</v>
@@ -4716,7 +4703,7 @@
         <v>609180</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>10</v>
@@ -4730,7 +4717,7 @@
         <v>610180</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>10</v>
@@ -4744,7 +4731,7 @@
         <v>614180</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>19</v>
@@ -4756,7 +4743,7 @@
         <v>114</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I232" s="3" t="s">
         <v>116</v>
@@ -4770,7 +4757,7 @@
         <v>618180</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>10</v>
@@ -4812,7 +4799,7 @@
         <v>626180</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>15</v>
@@ -4835,7 +4822,7 @@
         <v>634180</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>15</v>
@@ -4852,7 +4839,7 @@
         <v>638180</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>10</v>
@@ -4866,7 +4853,7 @@
         <v>639180</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>15</v>
@@ -4883,7 +4870,7 @@
         <v>641940</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>15</v>
@@ -4900,7 +4887,7 @@
         <v>642940</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>10</v>
@@ -4928,7 +4915,7 @@
         <v>645720</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>15</v>
@@ -4945,7 +4932,7 @@
         <v>647120</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>10</v>
@@ -4959,7 +4946,7 @@
         <v>648860</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>10</v>
@@ -4987,7 +4974,7 @@
         <v>654860</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>15</v>
@@ -5004,7 +4991,7 @@
         <v>664040</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>15</v>
@@ -5021,7 +5008,7 @@
         <v>667860</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>15</v>
@@ -5052,7 +5039,7 @@
         <v>669160</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>10</v>
@@ -5066,7 +5053,7 @@
         <v>672160</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>10</v>
@@ -5080,7 +5067,7 @@
         <v>675160</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>15</v>
@@ -5089,7 +5076,7 @@
         <v>114</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>116</v>
@@ -5117,7 +5104,7 @@
         <v>681160</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>10</v>
@@ -5131,7 +5118,7 @@
         <v>684160</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>10</v>
@@ -5145,13 +5132,13 @@
         <v>685160</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,7 +5149,7 @@
         <v>688160</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>10</v>
@@ -5176,13 +5163,13 @@
         <v>690160</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,7 +5180,7 @@
         <v>692160</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>10</v>
